--- a/BackTest/2019-10-26 BackTest CON.xlsx
+++ b/BackTest/2019-10-26 BackTest CON.xlsx
@@ -451,20 +451,14 @@
         <v>5.215999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>5.215999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>5.215999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>5.217999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>5.215999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>5.217999999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>5.219999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>5.222</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>5.225999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>5.233999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>5.243999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>5.247999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>5.251999999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.26</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>5.253999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.26</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>5.253999999999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.26</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>5.251999999999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>5.251999999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>5.247999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>5.247999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1483,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1522,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1561,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1632,20 +1466,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1673,20 +1501,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1831,20 +1641,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1872,20 +1676,14 @@
         <v>5.238</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1913,20 +1711,14 @@
         <v>5.234</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1954,20 +1746,14 @@
         <v>5.235999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1995,20 +1781,14 @@
         <v>5.237999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2036,20 +1816,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2077,20 +1851,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2118,20 +1886,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2159,20 +1921,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2200,20 +1956,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2241,20 +1991,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2282,20 +2026,14 @@
         <v>5.235999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2323,20 +2061,14 @@
         <v>5.237999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2364,20 +2096,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2405,20 +2131,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2446,20 +2166,14 @@
         <v>5.237999999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2487,20 +2201,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2528,20 +2236,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2569,20 +2271,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2610,20 +2306,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2651,20 +2341,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2692,20 +2376,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2733,20 +2411,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2774,20 +2446,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2815,20 +2481,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2856,20 +2516,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2897,20 +2551,14 @@
         <v>5.239999999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2938,20 +2586,14 @@
         <v>5.241999999999997</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2979,20 +2621,14 @@
         <v>5.243999999999997</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3066,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3098,20 +2726,14 @@
         <v>5.199999999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3139,20 +2761,14 @@
         <v>5.191999999999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3180,20 +2796,14 @@
         <v>5.183999999999997</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3221,20 +2831,14 @@
         <v>5.207999999999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3262,20 +2866,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3303,20 +2901,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3344,20 +2936,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3385,20 +2971,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3426,20 +3006,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3467,20 +3041,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3508,20 +3076,14 @@
         <v>5.213999999999998</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3549,20 +3111,14 @@
         <v>5.215999999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3590,20 +3146,14 @@
         <v>5.217999999999997</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3631,20 +3181,14 @@
         <v>5.219999999999997</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3672,20 +3216,14 @@
         <v>5.221999999999996</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3713,20 +3251,14 @@
         <v>5.219999999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3754,20 +3286,14 @@
         <v>5.219999999999996</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3795,20 +3321,14 @@
         <v>5.217999999999996</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3836,20 +3356,14 @@
         <v>5.213999999999997</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3877,20 +3391,14 @@
         <v>5.211999999999997</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3918,20 +3426,14 @@
         <v>5.209999999999997</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3959,20 +3461,14 @@
         <v>5.207999999999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4000,20 +3496,14 @@
         <v>5.207999999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4041,20 +3531,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4082,20 +3566,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4123,20 +3601,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4164,20 +3636,14 @@
         <v>5.209999999999998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4205,20 +3671,14 @@
         <v>5.215999999999998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4246,20 +3706,14 @@
         <v>5.221999999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4287,20 +3741,14 @@
         <v>5.227999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4328,20 +3776,14 @@
         <v>5.233999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4369,20 +3811,14 @@
         <v>5.241999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4410,20 +3846,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4451,20 +3881,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4492,20 +3916,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4533,20 +3951,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4574,20 +3986,14 @@
         <v>5.238</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4615,20 +4021,14 @@
         <v>5.24</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4656,20 +4056,14 @@
         <v>5.239999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4697,20 +4091,14 @@
         <v>5.241999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4738,20 +4126,14 @@
         <v>5.241999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4779,20 +4161,14 @@
         <v>5.249999999999998</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4820,20 +4196,14 @@
         <v>5.253999999999998</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4985,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5375,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5570,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5726,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5843,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5960,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5999,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6038,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6272,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6428,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6545,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6584,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6662,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6701,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6740,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6818,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6974,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7013,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7169,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7286,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7403,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7442,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7481,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7559,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7676,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7715,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7832,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7871,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7903,20 +6961,14 @@
         <v>5.22399999999999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7944,20 +6996,14 @@
         <v>5.21599999999999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7985,20 +7031,14 @@
         <v>5.21199999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8026,20 +7066,14 @@
         <v>5.20999999999999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8067,20 +7101,14 @@
         <v>5.21199999999999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8108,20 +7136,14 @@
         <v>5.21199999999999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8149,20 +7171,14 @@
         <v>5.21399999999999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8190,20 +7206,14 @@
         <v>5.215999999999989</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8231,20 +7241,14 @@
         <v>5.217999999999988</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>5.21</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8272,20 +7276,14 @@
         <v>5.223999999999989</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>5.22</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8313,20 +7311,14 @@
         <v>5.235999999999988</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8361,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8393,20 +7381,14 @@
         <v>5.257999999999989</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8558,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8597,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8675,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8714,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8987,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9026,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9182,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9221,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9260,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9377,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9416,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9455,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9611,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9650,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9767,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9845,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10001,12 +8823,10 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10139,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -35301,14 +34121,20 @@
         <v>5.237999999999987</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I964" t="n">
         <v>0</v>
       </c>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>5.24</v>
+      </c>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35336,14 +34162,20 @@
         <v>5.229999999999988</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>0</v>
       </c>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>5.24</v>
+      </c>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35371,14 +34203,20 @@
         <v>5.219999999999987</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I966" t="n">
         <v>0</v>
       </c>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -35406,14 +34244,20 @@
         <v>5.211999999999987</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I967" t="n">
         <v>0</v>
       </c>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -35441,14 +34285,20 @@
         <v>5.205999999999987</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I968" t="n">
         <v>0</v>
       </c>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>5.2</v>
+      </c>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -35476,14 +34326,20 @@
         <v>5.199999999999987</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I969" t="n">
         <v>0</v>
       </c>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>5.21</v>
+      </c>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -35518,7 +34374,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -35553,7 +34413,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -35581,18 +34445,18 @@
         <v>5.219999999999986</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="n">
         <v>0</v>
       </c>
-      <c r="J972" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K972" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -35626,12 +34490,10 @@
         <v>0</v>
       </c>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M973" t="n">
@@ -35667,12 +34529,10 @@
         <v>0</v>
       </c>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M974" t="n">
@@ -35702,18 +34562,18 @@
         <v>5.233999999999988</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I975" t="n">
         <v>0</v>
       </c>
-      <c r="J975" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K975" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="L975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -35747,12 +34607,10 @@
         <v>0</v>
       </c>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M976" t="n">
@@ -35788,9 +34646,7 @@
         <v>0</v>
       </c>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35823,17 +34679,13 @@
         <v>5.235999999999988</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="n">
         <v>0</v>
       </c>
-      <c r="J978" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K978" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35872,9 +34724,7 @@
         <v>0</v>
       </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35913,9 +34763,7 @@
         <v>0</v>
       </c>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35954,9 +34802,7 @@
         <v>0</v>
       </c>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35995,9 +34841,7 @@
         <v>0</v>
       </c>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36030,17 +34874,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="n">
         <v>0</v>
       </c>
-      <c r="J983" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K983" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36073,17 +34913,13 @@
         <v>5.241999999999988</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I984" t="n">
         <v>0</v>
       </c>
-      <c r="J984" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K984" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36116,17 +34952,13 @@
         <v>5.243999999999987</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K985" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36159,17 +34991,13 @@
         <v>5.247999999999986</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="n">
         <v>0</v>
       </c>
-      <c r="J986" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="K986" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36202,17 +35030,13 @@
         <v>5.251999999999986</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="n">
         <v>0</v>
       </c>
-      <c r="J987" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="K987" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36251,9 +35075,7 @@
         <v>0</v>
       </c>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36292,9 +35114,7 @@
         <v>0</v>
       </c>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36327,17 +35147,13 @@
         <v>5.245999999999986</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="n">
         <v>0</v>
       </c>
-      <c r="J990" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K990" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36370,17 +35186,13 @@
         <v>5.241999999999988</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="n">
         <v>0</v>
       </c>
-      <c r="J991" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K991" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36413,17 +35225,13 @@
         <v>5.237999999999988</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="n">
         <v>0</v>
       </c>
-      <c r="J992" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K992" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36456,17 +35264,13 @@
         <v>5.239999999999989</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="n">
         <v>0</v>
       </c>
-      <c r="J993" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K993" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36499,17 +35303,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I994" t="n">
         <v>0</v>
       </c>
-      <c r="J994" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K994" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36542,17 +35342,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I995" t="n">
         <v>0</v>
       </c>
-      <c r="J995" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K995" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36585,17 +35381,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I996" t="n">
         <v>0</v>
       </c>
-      <c r="J996" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K996" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36628,17 +35420,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I997" t="n">
         <v>0</v>
       </c>
-      <c r="J997" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K997" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36671,17 +35459,13 @@
         <v>5.239999999999988</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I998" t="n">
         <v>0</v>
       </c>
-      <c r="J998" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K998" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36714,17 +35498,13 @@
         <v>5.241999999999988</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I999" t="n">
         <v>0</v>
       </c>
-      <c r="J999" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K999" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36757,17 +35537,13 @@
         <v>5.243999999999987</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="n">
         <v>0</v>
       </c>
-      <c r="J1000" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1000" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36800,17 +35576,13 @@
         <v>5.245999999999986</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="n">
         <v>0</v>
       </c>
-      <c r="J1001" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1001" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36843,17 +35615,13 @@
         <v>5.247999999999986</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="n">
         <v>0</v>
       </c>
-      <c r="J1002" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1002" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36886,17 +35654,13 @@
         <v>5.249999999999986</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="n">
         <v>0</v>
       </c>
-      <c r="J1003" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1003" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36929,17 +35693,13 @@
         <v>5.249999999999986</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="n">
         <v>0</v>
       </c>
-      <c r="J1004" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1004" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36972,17 +35732,13 @@
         <v>5.249999999999986</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="n">
         <v>0</v>
       </c>
-      <c r="J1005" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1005" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37015,17 +35771,13 @@
         <v>5.249999999999986</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="n">
         <v>0</v>
       </c>
-      <c r="J1006" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1006" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37058,17 +35810,13 @@
         <v>5.249999999999986</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="n">
         <v>0</v>
       </c>
-      <c r="J1007" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K1007" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37107,9 +35855,7 @@
         <v>0</v>
       </c>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37142,17 +35888,13 @@
         <v>5.253999999999985</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="n">
         <v>0</v>
       </c>
-      <c r="J1009" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="K1009" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37191,9 +35933,7 @@
         <v>0</v>
       </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37232,9 +35972,7 @@
         <v>0</v>
       </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37273,9 +36011,7 @@
         <v>0</v>
       </c>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37314,9 +36050,7 @@
         <v>0</v>
       </c>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37355,9 +36089,7 @@
         <v>0</v>
       </c>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37396,9 +36128,7 @@
         <v>0</v>
       </c>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37437,9 +36167,7 @@
         <v>0</v>
       </c>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37478,9 +36206,7 @@
         <v>0</v>
       </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37519,9 +36245,7 @@
         <v>0</v>
       </c>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37560,9 +36284,7 @@
         <v>0</v>
       </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37601,9 +36323,7 @@
         <v>0</v>
       </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
